--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H2">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I2">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J2">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N2">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O2">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P2">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q2">
-        <v>5.212731659815062</v>
+        <v>5.29287048246</v>
       </c>
       <c r="R2">
-        <v>5.212731659815062</v>
+        <v>21.17148192984</v>
       </c>
       <c r="S2">
-        <v>0.01109435961698792</v>
+        <v>0.008211962949275968</v>
       </c>
       <c r="T2">
-        <v>0.01109435961698792</v>
+        <v>0.004255801691537764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H3">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I3">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J3">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N3">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P3">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q3">
-        <v>25.41614521254508</v>
+        <v>29.97269282744</v>
       </c>
       <c r="R3">
-        <v>25.41614521254508</v>
+        <v>179.83615696464</v>
       </c>
       <c r="S3">
-        <v>0.05409368321015109</v>
+        <v>0.04650305421314019</v>
       </c>
       <c r="T3">
-        <v>0.05409368321015109</v>
+        <v>0.03614990313602245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H4">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I4">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J4">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N4">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O4">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P4">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q4">
-        <v>11.79667526375829</v>
+        <v>15.32055974386667</v>
       </c>
       <c r="R4">
-        <v>11.79667526375829</v>
+        <v>91.92335846320002</v>
       </c>
       <c r="S4">
-        <v>0.02510709666294305</v>
+        <v>0.02377006378594166</v>
       </c>
       <c r="T4">
-        <v>0.02510709666294305</v>
+        <v>0.01847804446263792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H5">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I5">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J5">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N5">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O5">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P5">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q5">
-        <v>13.32773148933668</v>
+        <v>20.01869781522601</v>
       </c>
       <c r="R5">
-        <v>13.32773148933668</v>
+        <v>120.112186891356</v>
       </c>
       <c r="S5">
-        <v>0.0283656738291802</v>
+        <v>0.03105929103993148</v>
       </c>
       <c r="T5">
-        <v>0.0283656738291802</v>
+        <v>0.02414444344710999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H6">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I6">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J6">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N6">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O6">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P6">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q6">
-        <v>3.375772392795009</v>
+        <v>5.027655743198</v>
       </c>
       <c r="R6">
-        <v>3.375772392795009</v>
+        <v>30.165934459188</v>
       </c>
       <c r="S6">
-        <v>0.007184722973462317</v>
+        <v>0.007800478553495103</v>
       </c>
       <c r="T6">
-        <v>0.007184722973462317</v>
+        <v>0.0060638284709435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H7">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I7">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J7">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N7">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O7">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P7">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q7">
-        <v>6.310564448450074</v>
+        <v>12.730892192986</v>
       </c>
       <c r="R7">
-        <v>6.310564448450074</v>
+        <v>50.923568771944</v>
       </c>
       <c r="S7">
-        <v>0.01343089879669118</v>
+        <v>0.01975215818079822</v>
       </c>
       <c r="T7">
-        <v>0.01343089879669118</v>
+        <v>0.01023644026606015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H8">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J8">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N8">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O8">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P8">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q8">
-        <v>4.813086777727709</v>
+        <v>5.27602938775</v>
       </c>
       <c r="R8">
-        <v>4.813086777727709</v>
+        <v>31.6561763265</v>
       </c>
       <c r="S8">
-        <v>0.01024378753111862</v>
+        <v>0.008185833754117676</v>
       </c>
       <c r="T8">
-        <v>0.01024378753111862</v>
+        <v>0.00636339058382365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H9">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J9">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N9">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P9">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q9">
-        <v>23.46756373560349</v>
+        <v>29.87732435766667</v>
       </c>
       <c r="R9">
-        <v>23.46756373560349</v>
+        <v>268.895919219</v>
       </c>
       <c r="S9">
-        <v>0.04994647881540991</v>
+        <v>0.04635508869180294</v>
       </c>
       <c r="T9">
-        <v>0.04994647881540991</v>
+        <v>0.05405231960861941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H10">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J10">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N10">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O10">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P10">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q10">
-        <v>10.89225869247161</v>
+        <v>15.27181209388889</v>
       </c>
       <c r="R10">
-        <v>10.89225869247161</v>
+        <v>137.446308845</v>
       </c>
       <c r="S10">
-        <v>0.02318220903391562</v>
+        <v>0.02369443112181198</v>
       </c>
       <c r="T10">
-        <v>0.02318220903391562</v>
+        <v>0.02762887527744231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H11">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J11">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N11">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O11">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P11">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q11">
-        <v>12.30593331763934</v>
+        <v>19.95500141702501</v>
       </c>
       <c r="R11">
-        <v>12.30593331763934</v>
+        <v>179.595012753225</v>
       </c>
       <c r="S11">
-        <v>0.02619096062455051</v>
+        <v>0.03096046518281627</v>
       </c>
       <c r="T11">
-        <v>0.02619096062455051</v>
+        <v>0.0361014293472605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H12">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J12">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N12">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O12">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P12">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q12">
-        <v>3.116961802126667</v>
+        <v>5.011658520741667</v>
       </c>
       <c r="R12">
-        <v>3.116961802126667</v>
+        <v>45.104926686675</v>
       </c>
       <c r="S12">
-        <v>0.006633891288091903</v>
+        <v>0.007775658637999709</v>
       </c>
       <c r="T12">
-        <v>0.006633891288091903</v>
+        <v>0.009066801460850265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H13">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J13">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N13">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O13">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P13">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q13">
-        <v>5.82675193909966</v>
+        <v>12.69038446435833</v>
       </c>
       <c r="R13">
-        <v>5.82675193909966</v>
+        <v>76.14230678615</v>
       </c>
       <c r="S13">
-        <v>0.01240119108944249</v>
+        <v>0.01968930987046226</v>
       </c>
       <c r="T13">
-        <v>0.01240119108944249</v>
+        <v>0.0153058042461052</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H14">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I14">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J14">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N14">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O14">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P14">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q14">
-        <v>10.30702690059842</v>
+        <v>10.54801163295</v>
       </c>
       <c r="R14">
-        <v>10.30702690059842</v>
+        <v>63.2880697977</v>
       </c>
       <c r="S14">
-        <v>0.02193664866709525</v>
+        <v>0.01636538830968304</v>
       </c>
       <c r="T14">
-        <v>0.02193664866709525</v>
+        <v>0.01272189993084944</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H15">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I15">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J15">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N15">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P15">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q15">
-        <v>50.25482021925371</v>
+        <v>59.73173038380001</v>
       </c>
       <c r="R15">
-        <v>50.25482021925371</v>
+        <v>537.5855734542</v>
       </c>
       <c r="S15">
-        <v>0.1069583251901474</v>
+        <v>0.09267461927009552</v>
       </c>
       <c r="T15">
-        <v>0.1069583251901474</v>
+        <v>0.1080631767031895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H16">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I16">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J16">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N16">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O16">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P16">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q16">
-        <v>23.32532292396851</v>
+        <v>30.53190946900001</v>
       </c>
       <c r="R16">
-        <v>23.32532292396851</v>
+        <v>274.7871852210001</v>
       </c>
       <c r="S16">
-        <v>0.04964374489019063</v>
+        <v>0.04737068669278003</v>
       </c>
       <c r="T16">
-        <v>0.04964374489019063</v>
+        <v>0.05523655696619772</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H17">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I17">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J17">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N17">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O17">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P17">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q17">
-        <v>26.3526488507984</v>
+        <v>39.89469572914501</v>
       </c>
       <c r="R17">
-        <v>26.3526488507984</v>
+        <v>359.052261562305</v>
       </c>
       <c r="S17">
-        <v>0.0560868623767473</v>
+        <v>0.06189718117721821</v>
       </c>
       <c r="T17">
-        <v>0.0560868623767473</v>
+        <v>0.07217516596953992</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H18">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I18">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J18">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N18">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O18">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P18">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q18">
-        <v>6.674845193176525</v>
+        <v>10.019472692835</v>
       </c>
       <c r="R18">
-        <v>6.674845193176525</v>
+        <v>90.17525423551501</v>
       </c>
       <c r="S18">
-        <v>0.01420620469142869</v>
+        <v>0.01554535271503598</v>
       </c>
       <c r="T18">
-        <v>0.01420620469142869</v>
+        <v>0.01812664794945003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H19">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I19">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J19">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N19">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O19">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P19">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q19">
-        <v>12.47774905229681</v>
+        <v>25.371034374345</v>
       </c>
       <c r="R19">
-        <v>12.47774905229681</v>
+        <v>152.22620624607</v>
       </c>
       <c r="S19">
-        <v>0.02655663944182815</v>
+        <v>0.03936351644298953</v>
       </c>
       <c r="T19">
-        <v>0.02655663944182815</v>
+        <v>0.03059986769869431</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H20">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I20">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J20">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N20">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O20">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P20">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q20">
-        <v>9.90167047085335</v>
+        <v>10.12483487653</v>
       </c>
       <c r="R20">
-        <v>9.90167047085335</v>
+        <v>60.74900925917999</v>
       </c>
       <c r="S20">
-        <v>0.02107392058168107</v>
+        <v>0.01570882362399274</v>
       </c>
       <c r="T20">
-        <v>0.02107392058168107</v>
+        <v>0.01221150872769421</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H21">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I21">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J21">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N21">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P21">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q21">
-        <v>48.27839047884289</v>
+        <v>57.33534698958666</v>
       </c>
       <c r="R21">
-        <v>48.27839047884289</v>
+        <v>516.0181229062799</v>
       </c>
       <c r="S21">
-        <v>0.1027518507869349</v>
+        <v>0.08895659675079257</v>
       </c>
       <c r="T21">
-        <v>0.1027518507869349</v>
+        <v>0.1037277790759395</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H22">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I22">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J22">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N22">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O22">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P22">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q22">
-        <v>22.40798083159833</v>
+        <v>29.30699667348889</v>
       </c>
       <c r="R22">
-        <v>22.40798083159833</v>
+        <v>263.7629700614</v>
       </c>
       <c r="S22">
-        <v>0.04769134761967468</v>
+        <v>0.04547021727336658</v>
       </c>
       <c r="T22">
-        <v>0.04769134761967468</v>
+        <v>0.05302051589360868</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H23">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I23">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J23">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N23">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O23">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P23">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q23">
-        <v>25.31624759217115</v>
+        <v>38.294156355043</v>
       </c>
       <c r="R23">
-        <v>25.31624759217115</v>
+        <v>344.647407195387</v>
       </c>
       <c r="S23">
-        <v>0.05388106913414682</v>
+        <v>0.05941392184137401</v>
       </c>
       <c r="T23">
-        <v>0.05388106913414682</v>
+        <v>0.06927956311168423</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H24">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I24">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J24">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N24">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O24">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P24">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q24">
-        <v>6.412335796169907</v>
+        <v>9.617500444155667</v>
       </c>
       <c r="R24">
-        <v>6.412335796169907</v>
+        <v>86.557503997401</v>
       </c>
       <c r="S24">
-        <v>0.01364750076356653</v>
+        <v>0.01492168712115248</v>
       </c>
       <c r="T24">
-        <v>0.01364750076356653</v>
+        <v>0.01739942310831946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H25">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I25">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J25">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N25">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O25">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P25">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q25">
-        <v>11.98702210883648</v>
+        <v>24.35317125405633</v>
       </c>
       <c r="R25">
-        <v>11.98702210883648</v>
+        <v>146.119027524338</v>
       </c>
       <c r="S25">
-        <v>0.02551221560807046</v>
+        <v>0.03778428750494076</v>
       </c>
       <c r="T25">
-        <v>0.02551221560807046</v>
+        <v>0.02937222848002262</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H26">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I26">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J26">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N26">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O26">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P26">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q26">
-        <v>3.306748390008621</v>
+        <v>3.410705210989999</v>
       </c>
       <c r="R26">
-        <v>3.306748390008621</v>
+        <v>20.46423126594</v>
       </c>
       <c r="S26">
-        <v>0.007037817826777032</v>
+        <v>0.005291757075176839</v>
       </c>
       <c r="T26">
-        <v>0.007037817826777032</v>
+        <v>0.004113633156442234</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H27">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I27">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J27">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N27">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O27">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P27">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q27">
-        <v>16.12298555663433</v>
+        <v>19.31428701169333</v>
       </c>
       <c r="R27">
-        <v>16.12298555663433</v>
+        <v>173.82858310524</v>
       </c>
       <c r="S27">
-        <v>0.03431486819928682</v>
+        <v>0.02996638777716518</v>
       </c>
       <c r="T27">
-        <v>0.03431486819928682</v>
+        <v>0.03494228606520998</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H28">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I28">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J28">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N28">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O28">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P28">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q28">
-        <v>7.483338771608897</v>
+        <v>9.872509279577779</v>
       </c>
       <c r="R28">
-        <v>7.483338771608897</v>
+        <v>88.85258351620001</v>
       </c>
       <c r="S28">
-        <v>0.01592693752260466</v>
+        <v>0.01531733691367321</v>
       </c>
       <c r="T28">
-        <v>0.01592693752260466</v>
+        <v>0.01786077027951355</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H29">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I29">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J29">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N29">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O29">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P29">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q29">
-        <v>8.454579579566319</v>
+        <v>12.899971231469</v>
       </c>
       <c r="R29">
-        <v>8.454579579566319</v>
+        <v>116.099741083221</v>
       </c>
       <c r="S29">
-        <v>0.01799404849270125</v>
+        <v>0.02001448668555247</v>
       </c>
       <c r="T29">
-        <v>0.01799404849270125</v>
+        <v>0.02333787857299994</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H30">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I30">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J30">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N30">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O30">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P30">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q30">
-        <v>2.141454932538477</v>
+        <v>3.239801861620333</v>
       </c>
       <c r="R30">
-        <v>2.141454932538477</v>
+        <v>29.158216754583</v>
       </c>
       <c r="S30">
-        <v>0.004557700774874984</v>
+        <v>0.005026598126439711</v>
       </c>
       <c r="T30">
-        <v>0.004557700774874984</v>
+        <v>0.005861261323019579</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H31">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I31">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J31">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N31">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O31">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P31">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q31">
-        <v>4.003169583967853</v>
+        <v>8.203737553575666</v>
       </c>
       <c r="R31">
-        <v>4.003169583967853</v>
+        <v>49.222425321454</v>
       </c>
       <c r="S31">
-        <v>0.008520024791359194</v>
+        <v>0.01272821412479299</v>
       </c>
       <c r="T31">
-        <v>0.008520024791359194</v>
+        <v>0.009894483609547606</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H32">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I32">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J32">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N32">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O32">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P32">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q32">
-        <v>3.885969320209745</v>
+        <v>3.954302355135</v>
       </c>
       <c r="R32">
-        <v>3.885969320209745</v>
+        <v>15.81720942054</v>
       </c>
       <c r="S32">
-        <v>0.008270585158131573</v>
+        <v>0.006135155685032149</v>
       </c>
       <c r="T32">
-        <v>0.008270585158131573</v>
+        <v>0.003179508493095358</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H33">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I33">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J33">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N33">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O33">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P33">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q33">
-        <v>18.94714076600867</v>
+        <v>22.39259211614</v>
       </c>
       <c r="R33">
-        <v>18.94714076600867</v>
+        <v>134.35555269684</v>
       </c>
       <c r="S33">
-        <v>0.04032557344017395</v>
+        <v>0.03474242141487741</v>
       </c>
       <c r="T33">
-        <v>0.04032557344017395</v>
+        <v>0.02700758455782902</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H34">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I34">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J34">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N34">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O34">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P34">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q34">
-        <v>8.794145017828964</v>
+        <v>11.44598676236667</v>
       </c>
       <c r="R34">
-        <v>8.794145017828964</v>
+        <v>68.67592057420001</v>
       </c>
       <c r="S34">
-        <v>0.01871675231316216</v>
+        <v>0.01775860934476751</v>
       </c>
       <c r="T34">
-        <v>0.01871675231316216</v>
+        <v>0.01380494289044802</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H35">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I35">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J35">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N35">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O35">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P35">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q35">
-        <v>9.935511561973081</v>
+        <v>14.9559646660185</v>
       </c>
       <c r="R35">
-        <v>9.935511561973081</v>
+        <v>89.73578799611101</v>
       </c>
       <c r="S35">
-        <v>0.02114594524345445</v>
+        <v>0.02320438939797025</v>
       </c>
       <c r="T35">
-        <v>0.02114594524345445</v>
+        <v>0.01803830830599819</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H36">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I36">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J36">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N36">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O36">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P36">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q36">
-        <v>2.516559225854694</v>
+        <v>3.7561604826755</v>
       </c>
       <c r="R36">
-        <v>2.516559225854694</v>
+        <v>22.536962896053</v>
       </c>
       <c r="S36">
-        <v>0.005356042641579451</v>
+        <v>0.00582773578486083</v>
       </c>
       <c r="T36">
-        <v>0.005356042641579451</v>
+        <v>0.004530284896115963</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H37">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I37">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J37">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N37">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O37">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P37">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q37">
-        <v>4.704377942361479</v>
+        <v>9.511246713578499</v>
       </c>
       <c r="R37">
-        <v>4.704377942361479</v>
+        <v>38.044986854314</v>
       </c>
       <c r="S37">
-        <v>0.01001242037243782</v>
+        <v>0.0147568329646766</v>
       </c>
       <c r="T37">
-        <v>0.01001242037243782</v>
+        <v>0.007647642236177897</v>
       </c>
     </row>
   </sheetData>
